--- a/csv/regionsopdelt_postnummer.xlsx
+++ b/csv/regionsopdelt_postnummer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andreas\Documents\HTX\Programering\3.g\prog-eksamen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andreas\Documents\HTX\Programering\3.g\prog-eksamen\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78DAF792-D01A-4FFA-8F62-3DCFA03C2FC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB57F69B-6C16-41A1-ADF7-595E1AF7BF8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-12084" yWindow="3108" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="77">
   <si>
     <t>AMTS_NR</t>
   </si>
@@ -261,6 +261,9 @@
   </si>
   <si>
     <t>Skibby</t>
+  </si>
+  <si>
+    <t>pop</t>
   </si>
 </sst>
 </file>
@@ -662,10 +665,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:H1434"/>
+  <dimension ref="A1:I1434"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -680,7 +683,7 @@
     <col min="8" max="8" width="10.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,8 +708,11 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1084</v>
       </c>
@@ -731,8 +737,11 @@
       <c r="H2" s="4">
         <v>12330</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2">
+        <v>39442</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>1084</v>
       </c>
@@ -757,8 +766,11 @@
       <c r="H3" s="4">
         <v>12242</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3">
+        <v>19925</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>1084</v>
       </c>
@@ -783,8 +795,11 @@
       <c r="H4" s="4">
         <v>12473</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4">
+        <v>55903</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>1084</v>
       </c>
@@ -809,8 +824,11 @@
       <c r="H5" s="3">
         <v>12548</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5">
+        <v>8289</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>1084</v>
       </c>
@@ -835,8 +853,11 @@
       <c r="H6" s="3">
         <v>12461</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6">
+        <v>15200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>1084</v>
       </c>
@@ -861,8 +882,11 @@
       <c r="H7" s="3">
         <v>12472</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I7">
+        <v>20014</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>1084</v>
       </c>
@@ -887,8 +911,11 @@
       <c r="H8" s="3">
         <v>12535</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I8">
+        <v>5888</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>1084</v>
       </c>
@@ -913,8 +940,11 @@
       <c r="H9" s="3">
         <v>12527</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I9">
+        <v>9824</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>1084</v>
       </c>
@@ -939,8 +969,11 @@
       <c r="H10" s="3">
         <v>12457</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I10">
+        <v>10626</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>1084</v>
       </c>
@@ -965,8 +998,11 @@
       <c r="H11" s="3">
         <v>12569</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I11">
+        <v>18781</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>1084</v>
       </c>
@@ -992,7 +1028,7 @@
         <v>12579</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>1084</v>
       </c>
@@ -1018,7 +1054,7 @@
         <v>12589</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>1084</v>
       </c>
@@ -1043,8 +1079,11 @@
       <c r="H14" s="3">
         <v>12573</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I14">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>1084</v>
       </c>
@@ -1069,8 +1108,11 @@
       <c r="H15" s="3">
         <v>12560</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I15">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>1084</v>
       </c>
@@ -1095,8 +1137,11 @@
       <c r="H16" s="3">
         <v>12530</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I16">
+        <v>6453</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>1084</v>
       </c>
@@ -1121,8 +1166,11 @@
       <c r="H17" s="3">
         <v>12504</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I17">
+        <v>25046</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>1084</v>
       </c>
@@ -1147,8 +1195,11 @@
       <c r="H18" s="3">
         <v>12493</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I18">
+        <v>15354</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>1084</v>
       </c>
@@ -1173,8 +1224,11 @@
       <c r="H19" s="3">
         <v>12507</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I19">
+        <v>8090</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>1084</v>
       </c>
@@ -1199,8 +1253,11 @@
       <c r="H20" s="3">
         <v>12592</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I20">
+        <v>47346</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>1084</v>
       </c>
@@ -1225,8 +1282,11 @@
       <c r="H21" s="3">
         <v>12526</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I21">
+        <v>9657</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>1084</v>
       </c>
@@ -1251,8 +1311,11 @@
       <c r="H22" s="3">
         <v>12541</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I22">
+        <v>11524</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>1084</v>
       </c>
@@ -1277,8 +1340,11 @@
       <c r="H23" s="3">
         <v>12585</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I23">
+        <v>5716</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>1084</v>
       </c>
@@ -1303,8 +1369,11 @@
       <c r="H24" s="3">
         <v>12450</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I24">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>1084</v>
       </c>
@@ -1329,8 +1398,11 @@
       <c r="H25" s="3">
         <v>12458</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I25">
+        <v>5283</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>1084</v>
       </c>
@@ -1356,7 +1428,7 @@
         <v>12385</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>1084</v>
       </c>
@@ -1381,8 +1453,11 @@
       <c r="H27" s="3">
         <v>12511</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I27">
+        <v>5499</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>1084</v>
       </c>
@@ -1407,8 +1482,11 @@
       <c r="H28" s="3">
         <v>12559</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I28">
+        <v>5499</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>1084</v>
       </c>
@@ -1433,8 +1511,11 @@
       <c r="H29" s="3">
         <v>12196</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I29">
+        <v>8288</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>1084</v>
       </c>
@@ -1459,8 +1540,11 @@
       <c r="H30" s="3">
         <v>12140</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I30">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>1084</v>
       </c>
@@ -1485,8 +1569,11 @@
       <c r="H31" s="3">
         <v>12075</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I31">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>1084</v>
       </c>
@@ -1511,8 +1598,11 @@
       <c r="H32" s="3">
         <v>12285</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I32">
+        <v>3669</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>1084</v>
       </c>
@@ -1537,8 +1627,11 @@
       <c r="H33" s="3">
         <v>12301</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I33">
+        <v>6596</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>1084</v>
       </c>
@@ -1563,8 +1656,11 @@
       <c r="H34" s="3">
         <v>12018</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I34">
+        <v>12549</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
         <v>1084</v>
       </c>
@@ -1589,8 +1685,11 @@
       <c r="H35" s="3">
         <v>12070</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I35">
+        <v>1921</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
         <v>1084</v>
       </c>
@@ -1615,8 +1714,11 @@
       <c r="H36" s="3">
         <v>12154</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I36">
+        <v>2553</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
         <v>1084</v>
       </c>
@@ -1641,8 +1743,11 @@
       <c r="H37" s="3">
         <v>12199</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I37">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>1084</v>
       </c>
@@ -1667,8 +1772,11 @@
       <c r="H38" s="3">
         <v>11965</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I38">
+        <v>2499</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <v>1084</v>
       </c>
@@ -1693,8 +1801,11 @@
       <c r="H39" s="3">
         <v>11968</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I39">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <v>1084</v>
       </c>
@@ -1719,8 +1830,11 @@
       <c r="H40" s="3">
         <v>11858</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I40">
+        <v>8597</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
         <v>1084</v>
       </c>
@@ -1745,8 +1859,11 @@
       <c r="H41" s="3">
         <v>12300</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I41">
+        <v>33079</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
         <v>1084</v>
       </c>
@@ -1771,8 +1888,11 @@
       <c r="H42" s="3">
         <v>12342</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I42">
+        <v>16906</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
         <v>1084</v>
       </c>
@@ -1797,8 +1917,11 @@
       <c r="H43" s="3">
         <v>12422</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I43">
+        <v>20740</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
         <v>1084</v>
       </c>
@@ -1823,8 +1946,11 @@
       <c r="H44" s="3">
         <v>12405</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I44">
+        <v>8703</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
         <v>1084</v>
       </c>
@@ -1849,8 +1975,11 @@
       <c r="H45" s="3">
         <v>12499</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I45">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
         <v>1084</v>
       </c>
@@ -1875,8 +2004,11 @@
       <c r="H46" s="3">
         <v>12370</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I46">
+        <v>12977</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
         <v>1084</v>
       </c>
@@ -1901,8 +2033,11 @@
       <c r="H47" s="3">
         <v>12370</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I47">
+        <v>20372</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
         <v>1084</v>
       </c>
@@ -1927,8 +2062,11 @@
       <c r="H48" s="3">
         <v>12282</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I48">
+        <v>4107</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
         <v>1084</v>
       </c>
@@ -1953,8 +2091,11 @@
       <c r="H49" s="3">
         <v>12169</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I49">
+        <v>9237</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
         <v>1084</v>
       </c>
@@ -1979,8 +2120,11 @@
       <c r="H50" s="3">
         <v>12062</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I50">
+        <v>16268</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
         <v>1084</v>
       </c>
@@ -2005,8 +2149,11 @@
       <c r="H51" s="3">
         <v>11991</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I51">
+        <v>4245</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
         <v>1084</v>
       </c>
@@ -2031,8 +2178,11 @@
       <c r="H52" s="3">
         <v>12147</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I52">
+        <v>14681</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="5">
         <v>1084</v>
       </c>
@@ -2057,8 +2207,11 @@
       <c r="H53" s="3">
         <v>12198</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I53">
+        <v>5770</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="5">
         <v>1084</v>
       </c>
@@ -2083,8 +2236,11 @@
       <c r="H54" s="3">
         <v>12222</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I54">
+        <v>1820</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="5">
         <v>1084</v>
       </c>
@@ -2108,6 +2264,9 @@
       </c>
       <c r="H55" s="3">
         <v>11958</v>
+      </c>
+      <c r="I55">
+        <v>3190</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">

--- a/csv/regionsopdelt_postnummer.xlsx
+++ b/csv/regionsopdelt_postnummer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andreas\Documents\HTX\Programering\3.g\prog-eksamen\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB57F69B-6C16-41A1-ADF7-595E1AF7BF8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21770B51-780E-41F1-8762-E505AEDF92EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-12084" yWindow="3108" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -668,7 +668,7 @@
   <dimension ref="A1:I1434"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1027,6 +1027,9 @@
       <c r="H12" s="3">
         <v>12579</v>
       </c>
+      <c r="I12">
+        <v>12000</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
@@ -1053,6 +1056,9 @@
       <c r="H13" s="3">
         <v>12589</v>
       </c>
+      <c r="I13">
+        <v>9000</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
@@ -1426,6 +1432,9 @@
       </c>
       <c r="H26" s="3">
         <v>12385</v>
+      </c>
+      <c r="I26">
+        <v>3000</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">

--- a/csv/regionsopdelt_postnummer.xlsx
+++ b/csv/regionsopdelt_postnummer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andreas\Documents\HTX\Programering\3.g\prog-eksamen\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21770B51-780E-41F1-8762-E505AEDF92EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33471CB7-7DAF-42F9-BB7B-C99D2116419E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -74,9 +74,6 @@
     <t>Lyngby-Taarbæk Kommune</t>
   </si>
   <si>
-    <t>Kongens Lyngby</t>
-  </si>
-  <si>
     <t>Gentofte Kommune</t>
   </si>
   <si>
@@ -120,9 +117,6 @@
   </si>
   <si>
     <t>Hørsholm Kommune</t>
-  </si>
-  <si>
-    <t>Rungsted Kyst</t>
   </si>
   <si>
     <t>Hørsholm</t>
@@ -257,13 +251,19 @@
     <t>Stenløse</t>
   </si>
   <si>
-    <t>Veksø Sjælland</t>
-  </si>
-  <si>
     <t>Skibby</t>
   </si>
   <si>
     <t>pop</t>
+  </si>
+  <si>
+    <t>Lyngby</t>
+  </si>
+  <si>
+    <t>Veksø</t>
+  </si>
+  <si>
+    <t>Rungsted</t>
   </si>
 </sst>
 </file>
@@ -668,7 +668,7 @@
   <dimension ref="A1:I1434"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -709,7 +709,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -787,7 +787,7 @@
         <v>2800</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="G4" s="4">
         <v>55780</v>
@@ -810,13 +810,13 @@
         <v>157</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E5" s="5">
         <v>2820</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G5" s="3">
         <v>55748</v>
@@ -845,7 +845,7 @@
         <v>2830</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G6" s="3">
         <v>55794</v>
@@ -868,13 +868,13 @@
         <v>230</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E7" s="5">
         <v>2840</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G7" s="3">
         <v>55817</v>
@@ -897,13 +897,13 @@
         <v>230</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E8" s="5">
         <v>2850</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G8" s="3">
         <v>55816</v>
@@ -926,13 +926,13 @@
         <v>157</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E9" s="5">
         <v>2870</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G9" s="3">
         <v>55733</v>
@@ -955,13 +955,13 @@
         <v>190</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E10" s="5">
         <v>2880</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G10" s="3">
         <v>55765</v>
@@ -984,13 +984,13 @@
         <v>157</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E11" s="5">
         <v>2900</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G11" s="3">
         <v>55736</v>
@@ -1013,13 +1013,13 @@
         <v>157</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E12" s="5">
         <v>2920</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G12" s="3">
         <v>55756</v>
@@ -1042,13 +1042,13 @@
         <v>157</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E13" s="5">
         <v>2930</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G13" s="3">
         <v>55775</v>
@@ -1071,13 +1071,13 @@
         <v>230</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E14" s="5">
         <v>2942</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G14" s="3">
         <v>55827</v>
@@ -1100,13 +1100,13 @@
         <v>230</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E15" s="5">
         <v>2950</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G15" s="3">
         <v>55859</v>
@@ -1129,13 +1129,13 @@
         <v>223</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E16" s="5">
         <v>2960</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="G16" s="3">
         <v>55886</v>
@@ -1158,13 +1158,13 @@
         <v>223</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E17" s="5">
         <v>2970</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G17" s="3">
         <v>55883</v>
@@ -1187,13 +1187,13 @@
         <v>210</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E18" s="5">
         <v>2980</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G18" s="3">
         <v>55910</v>
@@ -1216,13 +1216,13 @@
         <v>210</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E19" s="5">
         <v>2990</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G19" s="3">
         <v>55932</v>
@@ -1245,13 +1245,13 @@
         <v>217</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E20" s="5">
         <v>3000</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G20" s="3">
         <v>56030</v>
@@ -1274,13 +1274,13 @@
         <v>210</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E21" s="5">
         <v>3050</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G21" s="3">
         <v>55958</v>
@@ -1303,13 +1303,13 @@
         <v>217</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E22" s="5">
         <v>3060</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G22" s="3">
         <v>55990</v>
@@ -1332,13 +1332,13 @@
         <v>217</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E23" s="5">
         <v>3070</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G23" s="3">
         <v>56010</v>
@@ -1361,13 +1361,13 @@
         <v>217</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E24" s="5">
         <v>3080</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G24" s="3">
         <v>56020</v>
@@ -1390,13 +1390,13 @@
         <v>217</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E25" s="5">
         <v>3100</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G25" s="3">
         <v>56084</v>
@@ -1419,13 +1419,13 @@
         <v>270</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E26" s="5">
         <v>3120</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G26" s="3">
         <v>56097</v>
@@ -1448,13 +1448,13 @@
         <v>217</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E27" s="5">
         <v>3140</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G27" s="3">
         <v>56067</v>
@@ -1477,13 +1477,13 @@
         <v>217</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E28" s="5">
         <v>3150</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G28" s="3">
         <v>56067</v>
@@ -1506,13 +1506,13 @@
         <v>270</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E29" s="5">
         <v>3200</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G29" s="3">
         <v>56020</v>
@@ -1535,13 +1535,13 @@
         <v>270</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E30" s="5">
         <v>3210</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G30" s="3">
         <v>56064</v>
@@ -1564,13 +1564,13 @@
         <v>270</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E31" s="5">
         <v>3220</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G31" s="3">
         <v>56043</v>
@@ -1593,13 +1593,13 @@
         <v>270</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E32" s="5">
         <v>3230</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G32" s="3">
         <v>56065</v>
@@ -1622,13 +1622,13 @@
         <v>270</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E33" s="5">
         <v>3250</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G33" s="3">
         <v>56122</v>
@@ -1651,13 +1651,13 @@
         <v>260</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E34" s="5">
         <v>3300</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G34" s="3">
         <v>55971</v>
@@ -1680,13 +1680,13 @@
         <v>260</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E35" s="5">
         <v>3310</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G35" s="3">
         <v>55922</v>
@@ -1709,13 +1709,13 @@
         <v>219</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E36" s="5">
         <v>3320</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G36" s="3">
         <v>55908</v>
@@ -1738,13 +1738,13 @@
         <v>219</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E37" s="5">
         <v>3330</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G37" s="3">
         <v>55885</v>
@@ -1767,13 +1767,13 @@
         <v>260</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E38" s="5">
         <v>3360</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G38" s="3">
         <v>56013</v>
@@ -1796,13 +1796,13 @@
         <v>260</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E39" s="5">
         <v>3370</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G39" s="3">
         <v>55995</v>
@@ -1825,13 +1825,13 @@
         <v>260</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E40" s="5">
         <v>3390</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G40" s="3">
         <v>55967</v>
@@ -1854,13 +1854,13 @@
         <v>219</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E41" s="5">
         <v>3400</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G41" s="3">
         <v>55927</v>
@@ -1883,13 +1883,13 @@
         <v>201</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E42" s="5">
         <v>3450</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G42" s="3">
         <v>55868</v>
@@ -1912,13 +1912,13 @@
         <v>230</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E43" s="5">
         <v>3460</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G43" s="3">
         <v>55844</v>
@@ -1941,13 +1941,13 @@
         <v>210</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E44" s="5">
         <v>3480</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G44" s="3">
         <v>55974</v>
@@ -1970,13 +1970,13 @@
         <v>217</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E45" s="5">
         <v>3490</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G45" s="3">
         <v>55991</v>
@@ -1999,13 +1999,13 @@
         <v>190</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E46" s="5">
         <v>3500</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G46" s="3">
         <v>55783</v>
@@ -2028,13 +2028,13 @@
         <v>190</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E47" s="5">
         <v>3520</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G47" s="3">
         <v>55813</v>
@@ -2057,13 +2057,13 @@
         <v>201</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E48" s="5">
         <v>3540</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G48" s="3">
         <v>55841</v>
@@ -2086,13 +2086,13 @@
         <v>250</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E49" s="5">
         <v>3550</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G49" s="3">
         <v>55845</v>
@@ -2115,13 +2115,13 @@
         <v>250</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E50" s="5">
         <v>3600</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G50" s="3">
         <v>55835</v>
@@ -2144,13 +2144,13 @@
         <v>250</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E51" s="5">
         <v>3630</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G51" s="3">
         <v>55851</v>
@@ -2179,7 +2179,7 @@
         <v>3650</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G52" s="3">
         <v>55793</v>
@@ -2208,7 +2208,7 @@
         <v>3660</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G53" s="3">
         <v>55768</v>
@@ -2237,7 +2237,7 @@
         <v>3670</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G54" s="3">
         <v>55752</v>
@@ -2260,13 +2260,13 @@
         <v>250</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E55" s="5">
         <v>4050</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G55" s="3">
         <v>55750</v>
